--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\3D Printing\manuals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D31BD1-BE19-4B8E-9D08-08CEE3AFC528}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F398E57-A0BB-40AD-A3EA-3A5D819FA747}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Material</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>rigid.ink PLA+</t>
+  </si>
+  <si>
+    <t>MK3 Pretty PETG V2 rigid.ink</t>
+  </si>
+  <si>
+    <t>MK3 Pretty PETG V2 PrimaSelect</t>
+  </si>
+  <si>
+    <t>EasyWood PLA</t>
   </si>
 </sst>
 </file>
@@ -567,12 +576,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
@@ -666,6 +676,12 @@
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,14 +703,30 @@
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F398E57-A0BB-40AD-A3EA-3A5D819FA747}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E765EA-151A-46B1-9E72-0439002EE2ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Material</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>EasyWood PLA</t>
+  </si>
+  <si>
+    <t>Turn overhangs towards the front of the printer (into wind as far as the part cooling fan is concerned), this probably goes for ABS too, but I have yet to check.</t>
+  </si>
+  <si>
+    <t>rigid.ink HIPS</t>
   </si>
 </sst>
 </file>
@@ -130,37 +136,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -237,6 +212,43 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -573,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +596,7 @@
     <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="142.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -593,42 +605,44 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
@@ -637,13 +651,15 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
@@ -652,13 +668,13 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -667,13 +683,13 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -682,13 +698,13 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -697,10 +713,10 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -712,54 +728,69 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E765EA-151A-46B1-9E72-0439002EE2ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F89DC-6E79-4338-941C-656C93A49B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Material</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>rigid.ink HIPS</t>
+  </si>
+  <si>
+    <t>Not quite happy with print quality, oozey and stringy</t>
+  </si>
+  <si>
+    <t>Original Prusa i3 MK3 purgebubble</t>
   </si>
 </sst>
 </file>
@@ -588,14 +594,14 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="142.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -734,8 +740,8 @@
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -743,7 +749,9 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F89DC-6E79-4338-941C-656C93A49B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763F328-AFCF-43EF-AFFD-355A7DE6025E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Material</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Original Prusa i3 MK3 purgebubble</t>
+  </si>
+  <si>
+    <t>Taulman T-Glase</t>
+  </si>
+  <si>
+    <t>Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
+  </si>
+  <si>
+    <t>Taulman T-Glase mod</t>
   </si>
 </sst>
 </file>
@@ -591,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +611,7 @@
     <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="142.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="181.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -738,67 +747,84 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763F328-AFCF-43EF-AFFD-355A7DE6025E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F09EA9-DB3F-454C-8A3A-8EA1B1280B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>Material</t>
   </si>
@@ -96,9 +96,6 @@
     <t>EasyWood PLA</t>
   </si>
   <si>
-    <t>Turn overhangs towards the front of the printer (into wind as far as the part cooling fan is concerned), this probably goes for ABS too, but I have yet to check.</t>
-  </si>
-  <si>
     <t>rigid.ink HIPS</t>
   </si>
   <si>
@@ -115,6 +112,48 @@
   </si>
   <si>
     <t>Taulman T-Glase mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) This is really just a start, there are issues with this profile, to be revisited </t>
+  </si>
+  <si>
+    <t>A little stringy</t>
+  </si>
+  <si>
+    <t>Unhappy with print quality, quite oozey, to be revisited.</t>
+  </si>
+  <si>
+    <t>rigid.ink TPU</t>
+  </si>
+  <si>
+    <t>A very small amount of discolouration on one of the pillars</t>
+  </si>
+  <si>
+    <t>Easywood PLA</t>
+  </si>
+  <si>
+    <t>Quite stringy, moreso that the Polywood</t>
+  </si>
+  <si>
+    <t>Graphene Enhanced PLA</t>
+  </si>
+  <si>
+    <t>Protopast Conductive</t>
+  </si>
+  <si>
+    <t>Slight artifacts on overhangs</t>
+  </si>
+  <si>
+    <t>Tiny amounts of stringyness, used gluestick on PEI bed</t>
+  </si>
+  <si>
+    <t>Quite oozy, used gluestick on PEI bed?</t>
+  </si>
+  <si>
+    <t>Amazonbasics PLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange. </t>
   </si>
 </sst>
 </file>
@@ -273,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -286,6 +325,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,15 +643,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="181.42578125" bestFit="1" customWidth="1"/>
@@ -638,67 +682,71 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -713,122 +761,210 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:E19">
+    <sortCondition ref="A3:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F09EA9-DB3F-454C-8A3A-8EA1B1280B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEC162C-B0A9-4632-BE6A-29E4F85BDBBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>Material</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Graphene Enhanced PLA</t>
   </si>
   <si>
-    <t>Protopast Conductive</t>
-  </si>
-  <si>
     <t>Slight artifacts on overhangs</t>
   </si>
   <si>
@@ -154,6 +151,39 @@
   </si>
   <si>
     <t xml:space="preserve">Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange. </t>
+  </si>
+  <si>
+    <t>rigid.ink ABS Ultra Durable</t>
+  </si>
+  <si>
+    <t>FilaPrint PETG</t>
+  </si>
+  <si>
+    <t>MK3 Pretty PETG V2 filaprint</t>
+  </si>
+  <si>
+    <t>Protopasta Conductive</t>
+  </si>
+  <si>
+    <t>Proto-pasta HTPLA Matte Fibre</t>
+  </si>
+  <si>
+    <t>Fillamentum PLA Extrafill</t>
+  </si>
+  <si>
+    <t>Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
+  </si>
+  <si>
+    <t>Need to dry filament before assessing print quality.</t>
+  </si>
+  <si>
+    <t>igus iglidur I150</t>
+  </si>
+  <si>
+    <t>iglidur I150</t>
+  </si>
+  <si>
+    <t>First one came out with some moderate blistering and some stringing, reduce extrusion multiplier and increase cooling?</t>
   </si>
 </sst>
 </file>
@@ -643,16 +673,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="181.42578125" bestFit="1" customWidth="1"/>
@@ -682,7 +711,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -694,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,26 +745,26 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -744,45 +773,43 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -790,181 +817,265 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
+      <c r="A11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
+      <c r="A12" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+      <c r="A13" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E19">
-    <sortCondition ref="A3:A19"/>
+  <sortState ref="A3:E24">
+    <sortCondition ref="A3:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEC162C-B0A9-4632-BE6A-29E4F85BDBBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD7A5D-B5A4-4E16-A644-8CB654FFCFB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -24,8 +24,406 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Darragh Broadbent</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{339F3111-5DCF-4BC9-A625-A0A72DCE7782}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{F6AFBB94-6733-4830-9835-F3AE4B0513F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Quite stringy, moreso that the Polywood</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{26D503F8-C4ED-4797-8D3C-6D76A5ED27F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+First one came out with some moderate blistering and some stringing, reduce extrusion multiplier and increase cooling?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{221044AA-A390-4D84-BA7C-0914AFFBB821}">
+      <text/>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{A8745309-D847-4CF9-A000-C21A4470BCE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A very small amount of discolouration on one of the pillars</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{985DE15F-4A11-41B1-8852-8A4820DB9028}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Slight artifacts on overhangs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{54BD3F34-1376-445B-88F8-B91899B9F727}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A little stringy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{6CD30595-BA02-485E-9C00-1233A05C83DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Quite oozy, used gluestick on PEI bed?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) This is really just a start, there are issues with this profile, to be revisited </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Need to dry filament before assessing print quality.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) This is really just a start, there are issues with this profile, to be revisited </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Unhappy with print quality, quite oozey, to be revisited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not quite happy with print quality, oozey and stringy, revisited end of April 2018, fought much better quality with new settings, but benchy warping off build plate, enclosure would probably help</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Unhappy with print quality, to be revisited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiny amounts of stringyness, used gluestick on PEI bed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
   <si>
     <t>Material</t>
   </si>
@@ -45,9 +443,6 @@
     <t>rigid.ink ABS</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>0.15 QUALITY MK3</t>
   </si>
   <si>
@@ -81,9 +476,6 @@
     <t>rigid.ink Flex PLA</t>
   </si>
   <si>
-    <t>Unhappy with print quality, to be revisited.</t>
-  </si>
-  <si>
     <t>rigid.ink PLA+</t>
   </si>
   <si>
@@ -99,60 +491,27 @@
     <t>rigid.ink HIPS</t>
   </si>
   <si>
-    <t>Not quite happy with print quality, oozey and stringy</t>
-  </si>
-  <si>
     <t>Original Prusa i3 MK3 purgebubble</t>
   </si>
   <si>
     <t>Taulman T-Glase</t>
   </si>
   <si>
-    <t>Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
-  </si>
-  <si>
     <t>Taulman T-Glase mod</t>
   </si>
   <si>
-    <t xml:space="preserve">Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) This is really just a start, there are issues with this profile, to be revisited </t>
-  </si>
-  <si>
-    <t>A little stringy</t>
-  </si>
-  <si>
-    <t>Unhappy with print quality, quite oozey, to be revisited.</t>
-  </si>
-  <si>
     <t>rigid.ink TPU</t>
   </si>
   <si>
-    <t>A very small amount of discolouration on one of the pillars</t>
-  </si>
-  <si>
     <t>Easywood PLA</t>
   </si>
   <si>
-    <t>Quite stringy, moreso that the Polywood</t>
-  </si>
-  <si>
     <t>Graphene Enhanced PLA</t>
   </si>
   <si>
-    <t>Slight artifacts on overhangs</t>
-  </si>
-  <si>
-    <t>Tiny amounts of stringyness, used gluestick on PEI bed</t>
-  </si>
-  <si>
-    <t>Quite oozy, used gluestick on PEI bed?</t>
-  </si>
-  <si>
     <t>Amazonbasics PLA</t>
   </si>
   <si>
-    <t xml:space="preserve">Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange. </t>
-  </si>
-  <si>
     <t>rigid.ink ABS Ultra Durable</t>
   </si>
   <si>
@@ -171,32 +530,72 @@
     <t>Fillamentum PLA Extrafill</t>
   </si>
   <si>
-    <t>Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
-  </si>
-  <si>
-    <t>Need to dry filament before assessing print quality.</t>
-  </si>
-  <si>
     <t>igus iglidur I150</t>
   </si>
   <si>
     <t>iglidur I150</t>
   </si>
   <si>
-    <t>First one came out with some moderate blistering and some stringing, reduce extrusion multiplier and increase cooling?</t>
+    <t>Enclosure used</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No, but would probably be helpful</t>
+  </si>
+  <si>
+    <t>READ THE NOTES IN COLUMN D</t>
+  </si>
+  <si>
+    <t>Images (roll over to view)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +606,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -338,11 +737,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -354,11 +784,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,11 +1107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,398 +1119,442 @@
     <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="181.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="E25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="E26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A3:E24">
-    <sortCondition ref="A3:A24"/>
+  <sortState ref="A5:E26">
+    <sortCondition ref="A5:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD7A5D-B5A4-4E16-A644-8CB654FFCFB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF61B405-18AF-43D7-BD66-667617533245}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>Material</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Images (roll over to view)</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1114,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1455,7 +1458,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2"/>
     </row>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF61B405-18AF-43D7-BD66-667617533245}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A4CE75-6E12-41E9-96A4-7625A46AEA71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
     </row>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A4CE75-6E12-41E9-96A4-7625A46AEA71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB84099F-A255-4354-879D-C8535F41606C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{221044AA-A390-4D84-BA7C-0914AFFBB821}">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{221044AA-A390-4D84-BA7C-0914AFFBB821}">
       <text/>
     </comment>
     <comment ref="D10" authorId="0" shapeId="0" xr:uid="{A8745309-D847-4CF9-A000-C21A4470BCE6}">
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>Material</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Brim useful depending on shape</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,21 +1128,21 @@
     <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1152,11 +1158,14 @@
       <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1172,9 +1181,10 @@
       <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1190,9 +1200,10 @@
       <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="11"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1208,9 +1219,10 @@
       <c r="E7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="11"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -1226,9 +1238,10 @@
       <c r="E8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="11"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -1244,9 +1257,10 @@
       <c r="E9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="11"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1262,9 +1276,10 @@
       <c r="E10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="11"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1280,9 +1295,10 @@
       <c r="E11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="11"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1298,9 +1314,10 @@
       <c r="E12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -1316,9 +1333,10 @@
       <c r="E13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="11"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1334,9 +1352,10 @@
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -1352,9 +1371,10 @@
       <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="11"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1370,9 +1390,10 @@
       <c r="E16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="11"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1388,9 +1409,12 @@
       <c r="E17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1406,9 +1430,10 @@
       <c r="E18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="11"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1424,9 +1449,12 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1442,9 +1470,10 @@
       <c r="E20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="11"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1460,9 +1489,12 @@
       <c r="E21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -1478,9 +1510,10 @@
       <c r="E22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="11"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -1496,9 +1529,10 @@
       <c r="E23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="11"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
@@ -1514,9 +1548,10 @@
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="11"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
@@ -1532,9 +1567,10 @@
       <c r="E25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="11"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -1550,7 +1586,8 @@
       <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A5:E26">

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB84099F-A255-4354-879D-C8535F41606C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110CF2A-4129-47C4-AA24-F36D69191162}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>Material</t>
   </si>
@@ -540,9 +540,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>No, but would probably be helpful</t>
   </si>
   <si>
     <t>READ THE NOTES IN COLUMN D</t>
@@ -1120,7 +1117,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1131,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1159,10 +1156,10 @@
         <v>37</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,10 +1404,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1428,9 +1425,11 @@
         <v>7</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,10 +1446,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1487,10 +1486,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2"/>
     </row>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110CF2A-4129-47C4-AA24-F36D69191162}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA337B47-3942-482D-BAFE-53629B8E472F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Material</t>
   </si>
@@ -555,6 +555,21 @@
   </si>
   <si>
     <t>Brim useful depending on shape</t>
+  </si>
+  <si>
+    <t>Stringy</t>
+  </si>
+  <si>
+    <t>Stringy, but cleans up fine</t>
+  </si>
+  <si>
+    <t>Stringy, but cleans up pretty well</t>
+  </si>
+  <si>
+    <t>Not great quality</t>
+  </si>
+  <si>
+    <t>Quite blobby, cleans up well</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1132,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1231,9 @@
       <c r="E7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,7 +1385,9 @@
       <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1387,7 +1406,9 @@
       <c r="E16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,7 +1490,9 @@
       <c r="E20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1547,7 +1570,9 @@
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,7 +1591,9 @@
       <c r="E25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA337B47-3942-482D-BAFE-53629B8E472F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC43634-4305-41F0-929D-A9BDFB3DF438}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
       <text>
         <r>
           <rPr>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>Material</t>
   </si>
@@ -570,6 +570,15 @@
   </si>
   <si>
     <t>Quite blobby, cleans up well</t>
+  </si>
+  <si>
+    <t>Taulman Bridge</t>
+  </si>
+  <si>
+    <t>Taulman Bridge mod</t>
+  </si>
+  <si>
+    <t>Tiny bit of stringing, thin layer of glue stick required</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1149,8 @@
     <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1597,27 +1607,48 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E26">
-    <sortCondition ref="A5:A26"/>
+  <sortState ref="A5:E27">
+    <sortCondition ref="A5:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC43634-4305-41F0-929D-A9BDFB3DF438}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674D131C-BA09-46B1-85B1-958C860E6A86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -98,12 +98,12 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-First one came out with some moderate blistering and some stringing, reduce extrusion multiplier and increase cooling?
+Stringy but cleans up fine.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{221044AA-A390-4D84-BA7C-0914AFFBB821}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{221044AA-A390-4D84-BA7C-0914AFFBB821}">
       <text/>
     </comment>
     <comment ref="D10" authorId="0" shapeId="0" xr:uid="{A8745309-D847-4CF9-A000-C21A4470BCE6}">
@@ -246,7 +246,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) This is really just a start, there are issues with this profile, to be revisited </t>
+Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now, brim helpful.</t>
         </r>
       </text>
     </comment>
@@ -270,7 +270,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Need to dry filament before assessing print quality.</t>
+Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Dry filament before usage. Brim helpful.</t>
         </r>
       </text>
     </comment>
@@ -294,7 +294,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) This is really just a start, there are issues with this profile, to be revisited </t>
+Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Brim helpful</t>
         </r>
       </text>
     </comment>
@@ -342,11 +342,37 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Not quite happy with print quality, oozey and stringy, revisited end of April 2018, fought much better quality with new settings, but benchy warping off build plate, enclosure would probably help</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
+Print quality now quite good, brim helpful
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reasonably happy with print quality, brim helpful. Dry filament before use.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
       <text>
         <r>
           <rPr>
@@ -370,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
       <text>
         <r>
           <rPr>
@@ -394,7 +420,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiny bit of stringing, thin layer of glue stick required, bridging not wonderful. Dry filament before use.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
       <text>
         <r>
           <rPr>
@@ -423,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t>Material</t>
   </si>
@@ -551,34 +601,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Brim useful depending on shape</t>
-  </si>
-  <si>
-    <t>Stringy</t>
-  </si>
-  <si>
-    <t>Stringy, but cleans up fine</t>
-  </si>
-  <si>
-    <t>Stringy, but cleans up pretty well</t>
-  </si>
-  <si>
-    <t>Not great quality</t>
-  </si>
-  <si>
-    <t>Quite blobby, cleans up well</t>
-  </si>
-  <si>
     <t>Taulman Bridge</t>
   </si>
   <si>
     <t>Taulman Bridge mod</t>
   </si>
   <si>
-    <t>Tiny bit of stringing, thin layer of glue stick required</t>
+    <t>rigid.ink Nylon 12</t>
   </si>
 </sst>
 </file>
@@ -1138,11 +1167,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1150,21 +1177,20 @@
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1180,14 +1206,11 @@
       <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1203,10 +1226,9 @@
       <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1222,10 +1244,9 @@
       <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1241,12 +1262,9 @@
       <c r="E7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -1262,10 +1280,9 @@
       <c r="E8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -1281,10 +1298,9 @@
       <c r="E9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1300,10 +1316,9 @@
       <c r="E10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1319,10 +1334,9 @@
       <c r="E11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1338,10 +1352,9 @@
       <c r="E12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -1357,10 +1370,9 @@
       <c r="E13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1376,10 +1388,9 @@
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -1395,12 +1406,9 @@
       <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1416,12 +1424,9 @@
       <c r="E16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1437,12 +1442,9 @@
       <c r="E17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1458,12 +1460,9 @@
       <c r="E18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1479,12 +1478,9 @@
       <c r="E19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1500,12 +1496,9 @@
       <c r="E20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1521,134 +1514,137 @@
       <c r="E21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>18</v>
+      <c r="C22" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="E24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="E25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
+      <c r="E28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E27">
-    <sortCondition ref="A5:A27"/>
+  <sortState ref="A5:E28">
+    <sortCondition ref="A5:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674D131C-BA09-46B1-85B1-958C860E6A86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DCA764-4832-474F-A311-03CA545B26FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -106,7 +106,7 @@
     <comment ref="F7" authorId="0" shapeId="0" xr:uid="{221044AA-A390-4D84-BA7C-0914AFFBB821}">
       <text/>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{A8745309-D847-4CF9-A000-C21A4470BCE6}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{B2EAE4EC-6C25-4511-9920-3BC8F3F2B3B6}">
       <text>
         <r>
           <rPr>
@@ -126,11 +126,36 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+First print came out really well, I have just changed things like minimum speeds and minimum layer times to improve reliability. No brim used but slight warping was seen on Benchy base.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{A8745309-D847-4CF9-A000-C21A4470BCE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 A very small amount of discolouration on one of the pillars</t>
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{985DE15F-4A11-41B1-8852-8A4820DB9028}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{985DE15F-4A11-41B1-8852-8A4820DB9028}">
       <text>
         <r>
           <rPr>
@@ -154,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{54BD3F34-1376-445B-88F8-B91899B9F727}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{54BD3F34-1376-445B-88F8-B91899B9F727}">
       <text>
         <r>
           <rPr>
@@ -178,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{6CD30595-BA02-485E-9C00-1233A05C83DE}">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{6CD30595-BA02-485E-9C00-1233A05C83DE}">
       <text>
         <r>
           <rPr>
@@ -202,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
       <text>
         <r>
           <rPr>
@@ -226,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
       <text>
         <r>
           <rPr>
@@ -250,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
       <text>
         <r>
           <rPr>
@@ -274,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
       <text>
         <r>
           <rPr>
@@ -298,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
       <text>
         <r>
           <rPr>
@@ -322,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
       <text>
         <r>
           <rPr>
@@ -347,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
       <text>
         <r>
           <rPr>
@@ -372,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
       <text>
         <r>
           <rPr>
@@ -396,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
       <text>
         <r>
           <rPr>
@@ -420,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
       <text>
         <r>
           <rPr>
@@ -444,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
       <text>
         <r>
           <rPr>
@@ -473,7 +498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>Material</t>
   </si>
@@ -608,6 +633,12 @@
   </si>
   <si>
     <t>rigid.ink Nylon 12</t>
+  </si>
+  <si>
+    <t>Fillamentum CPE HG100</t>
+  </si>
+  <si>
+    <t>Fillamentum CPE HG100 HM100 mod</t>
   </si>
 </sst>
 </file>
@@ -1167,14 +1198,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
@@ -1266,34 +1299,34 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>38</v>
@@ -1302,16 +1335,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>38</v>
@@ -1320,16 +1353,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>38</v>
@@ -1338,16 +1371,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>38</v>
@@ -1356,16 +1389,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>38</v>
@@ -1374,16 +1407,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>38</v>
@@ -1392,16 +1425,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>38</v>
@@ -1410,16 +1443,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>38</v>
@@ -1427,32 +1460,32 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -1463,14 +1496,14 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
+      <c r="A19" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -1482,88 +1515,88 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>18</v>
+      <c r="C23" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>38</v>
+      <c r="E23" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>38</v>
@@ -1572,16 +1605,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>38</v>
@@ -1589,17 +1622,17 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>25</v>
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>38</v>
@@ -1608,43 +1641,61 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F29" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E28">
-    <sortCondition ref="A5:A28"/>
+  <sortState ref="A5:E29">
+    <sortCondition ref="A5:A29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DCA764-4832-474F-A311-03CA545B26FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6801C-E60E-4049-A3AE-1165D62B5117}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -227,7 +227,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{0774A3A8-1D56-4E7B-BD3A-E841559A2162}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Brim suggested, doesn't seem to work well with the purgebubble method</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
       <text>
         <r>
           <rPr>
@@ -251,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
       <text>
         <r>
           <rPr>
@@ -275,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
       <text>
         <r>
           <rPr>
@@ -299,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
       <text>
         <r>
           <rPr>
@@ -323,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
       <text>
         <r>
           <rPr>
@@ -347,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
       <text>
         <r>
           <rPr>
@@ -372,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
       <text>
         <r>
           <rPr>
@@ -397,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
       <text>
         <r>
           <rPr>
@@ -421,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
       <text>
         <r>
           <rPr>
@@ -445,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
       <text>
         <r>
           <rPr>
@@ -469,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
       <text>
         <r>
           <rPr>
@@ -498,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
   <si>
     <t>Material</t>
   </si>
@@ -639,6 +663,15 @@
   </si>
   <si>
     <t>Fillamentum CPE HG100 HM100 mod</t>
+  </si>
+  <si>
+    <t>Protopasta PC-ABS</t>
+  </si>
+  <si>
+    <t>Proto-pasta PC-ABS</t>
+  </si>
+  <si>
+    <t>Original Prusa i3 MK3 no purgebubble</t>
   </si>
 </sst>
 </file>
@@ -1198,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,49 +1494,49 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -1514,14 +1547,14 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
+      <c r="A20" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -1533,88 +1566,88 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>18</v>
+      <c r="C24" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>38</v>
+      <c r="E24" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>38</v>
@@ -1623,16 +1656,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>38</v>
@@ -1640,17 +1673,17 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>25</v>
+      <c r="A27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>38</v>
@@ -1659,43 +1692,61 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F30" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E29">
-    <sortCondition ref="A5:A29"/>
+  <sortState ref="A5:E30">
+    <sortCondition ref="A5:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6801C-E60E-4049-A3AE-1165D62B5117}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0623F919-9757-4B7A-BA30-C34889307C2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -203,7 +203,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{6CD30595-BA02-485E-9C00-1233A05C83DE}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{2411A7C2-617C-4578-A4B6-0296745896B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Print quality improved by very conservative use of the cooling fan, especially small detail and short layer time, printed with a brim, minimal if any warping.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{6CD30595-BA02-485E-9C00-1233A05C83DE}">
       <text>
         <r>
           <rPr>
@@ -227,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{0774A3A8-1D56-4E7B-BD3A-E841559A2162}">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{0774A3A8-1D56-4E7B-BD3A-E841559A2162}">
       <text>
         <r>
           <rPr>
@@ -251,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
       <text>
         <r>
           <rPr>
@@ -275,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
       <text>
         <r>
           <rPr>
@@ -299,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
       <text>
         <r>
           <rPr>
@@ -323,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
       <text>
         <r>
           <rPr>
@@ -347,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
       <text>
         <r>
           <rPr>
@@ -371,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
       <text>
         <r>
           <rPr>
@@ -396,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
       <text>
         <r>
           <rPr>
@@ -421,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
       <text>
         <r>
           <rPr>
@@ -445,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
       <text>
         <r>
           <rPr>
@@ -469,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
       <text>
         <r>
           <rPr>
@@ -493,7 +517,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{CE52022A-1191-43A1-BA47-49CAA9AA301B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
       <text>
         <r>
           <rPr>
@@ -522,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t>Material</t>
   </si>
@@ -672,6 +720,18 @@
   </si>
   <si>
     <t>Original Prusa i3 MK3 no purgebubble</t>
+  </si>
+  <si>
+    <t>Polymaker PolyMax PC</t>
+  </si>
+  <si>
+    <t>Taulman Alloy 910</t>
+  </si>
+  <si>
+    <t>Polymaker PC-Max fans</t>
+  </si>
+  <si>
+    <t>Taulman PCTPE</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,34 +1500,34 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>38</v>
@@ -1476,16 +1536,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>38</v>
@@ -1494,67 +1554,67 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -1565,14 +1625,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
+      <c r="A21" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -1584,88 +1644,88 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>18</v>
+      <c r="C25" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>38</v>
+      <c r="E25" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>38</v>
@@ -1674,16 +1734,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>38</v>
@@ -1691,17 +1751,17 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>25</v>
+      <c r="A28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>38</v>
@@ -1710,43 +1770,79 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E30">
-    <sortCondition ref="A5:A30"/>
+  <sortState ref="A5:E32">
+    <sortCondition ref="A5:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0623F919-9757-4B7A-BA30-C34889307C2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC9881B-97AF-48FD-A85E-59B7AFA94DAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -271,7 +271,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Brim suggested, doesn't seem to work well with the purgebubble method</t>
+Brim suggested, prints well with the purgebubble method assuming glue stick used on bed.</t>
         </r>
       </text>
     </comment>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>Material</t>
   </si>
@@ -668,9 +668,6 @@
     <t>MK3 Pretty PETG V2 filaprint</t>
   </si>
   <si>
-    <t>Protopasta Conductive</t>
-  </si>
-  <si>
     <t>Proto-pasta HTPLA Matte Fibre</t>
   </si>
   <si>
@@ -713,25 +710,28 @@
     <t>Fillamentum CPE HG100 HM100 mod</t>
   </si>
   <si>
-    <t>Protopasta PC-ABS</t>
-  </si>
-  <si>
     <t>Proto-pasta PC-ABS</t>
   </si>
   <si>
-    <t>Original Prusa i3 MK3 no purgebubble</t>
-  </si>
-  <si>
     <t>Polymaker PolyMax PC</t>
   </si>
   <si>
     <t>Taulman Alloy 910</t>
   </si>
   <si>
-    <t>Polymaker PC-Max fans</t>
-  </si>
-  <si>
     <t>Taulman PCTPE</t>
+  </si>
+  <si>
+    <t>Proto-pasta Conductive</t>
+  </si>
+  <si>
+    <t>Proto-pasta PC-ABS / (fans)</t>
+  </si>
+  <si>
+    <t>Polymaker PC-Max fans / (no fans)</t>
+  </si>
+  <si>
+    <t>Alternate profiles denoted with parentheses</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1308,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1330,10 +1335,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1350,7 +1355,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="18"/>
     </row>
@@ -1368,49 +1373,49 @@
         <v>20</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -1422,7 +1427,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1440,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1458,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1476,7 +1481,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1494,16 +1499,16 @@
         <v>20</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>52</v>
@@ -1512,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -1530,13 +1535,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -1548,43 +1553,43 @@
         <v>22</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -1602,7 +1607,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1620,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -1638,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -1656,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -1674,7 +1679,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -1692,25 +1697,25 @@
         <v>7</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -1728,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -1746,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -1764,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1782,43 +1787,43 @@
         <v>22</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -1836,7 +1841,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" s="5"/>
     </row>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC9881B-97AF-48FD-A85E-59B7AFA94DAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2A6BD7-55BB-4A1C-8EB1-6EA0255219D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Print quality improved by very conservative use of the cooling fan, especially small detail and short layer time, printed with a brim, minimal if any warping.</t>
+Print quality improved by very conservative use of the cooling fan, especially small detail and short layer time, printed with a brim, minimal if any warping. Layer of glue stick on bed.</t>
         </r>
       </text>
     </comment>
@@ -271,7 +271,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Brim suggested, prints well with the purgebubble method assuming glue stick used on bed.</t>
+Brim suggested, prints well with the purgebubble method assuming glue stick used on bed. A significant decrease in layer to layer strength is in evidence with fans engaged, use with caution.</t>
         </r>
       </text>
     </comment>
@@ -537,7 +537,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping.</t>
+Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping. Glue stick on bed.</t>
         </r>
       </text>
     </comment>
@@ -575,9 +575,6 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Slic3r PE profiles</t>
-  </si>
-  <si>
     <t>print settings</t>
   </si>
   <si>
@@ -732,6 +729,9 @@
   </si>
   <si>
     <t>Alternate profiles denoted with parentheses</t>
+  </si>
+  <si>
+    <t>PrusaSlicer profiles</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,17 +1308,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1326,522 +1326,522 @@
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="5"/>
     </row>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2A6BD7-55BB-4A1C-8EB1-6EA0255219D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6C218-262D-4B68-AB94-F40552F64286}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -106,7 +106,31 @@
     <comment ref="F7" authorId="0" shapeId="0" xr:uid="{221044AA-A390-4D84-BA7C-0914AFFBB821}">
       <text/>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{B2EAE4EC-6C25-4511-9920-3BC8F3F2B3B6}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{99A1B285-34B1-496B-B6DF-B393D3A6FAD3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Plain PEI bed, also tried glue stick on PEI with mixed results, surface blobbing, easily removed with sharp knife or sandpaper.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{B2EAE4EC-6C25-4511-9920-3BC8F3F2B3B6}">
       <text>
         <r>
           <rPr>
@@ -131,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{A8745309-D847-4CF9-A000-C21A4470BCE6}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{A8745309-D847-4CF9-A000-C21A4470BCE6}">
       <text>
         <r>
           <rPr>
@@ -155,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{985DE15F-4A11-41B1-8852-8A4820DB9028}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{985DE15F-4A11-41B1-8852-8A4820DB9028}">
       <text>
         <r>
           <rPr>
@@ -179,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{54BD3F34-1376-445B-88F8-B91899B9F727}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{54BD3F34-1376-445B-88F8-B91899B9F727}">
       <text>
         <r>
           <rPr>
@@ -203,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{2411A7C2-617C-4578-A4B6-0296745896B9}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{2411A7C2-617C-4578-A4B6-0296745896B9}">
       <text>
         <r>
           <rPr>
@@ -227,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{6CD30595-BA02-485E-9C00-1233A05C83DE}">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{6CD30595-BA02-485E-9C00-1233A05C83DE}">
       <text>
         <r>
           <rPr>
@@ -251,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{0774A3A8-1D56-4E7B-BD3A-E841559A2162}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{0774A3A8-1D56-4E7B-BD3A-E841559A2162}">
       <text>
         <r>
           <rPr>
@@ -275,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
       <text>
         <r>
           <rPr>
@@ -299,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
       <text>
         <r>
           <rPr>
@@ -323,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
       <text>
         <r>
           <rPr>
@@ -347,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
       <text>
         <r>
           <rPr>
@@ -371,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
       <text>
         <r>
           <rPr>
@@ -395,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
       <text>
         <r>
           <rPr>
@@ -420,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
       <text>
         <r>
           <rPr>
@@ -445,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
       <text>
         <r>
           <rPr>
@@ -469,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
       <text>
         <r>
           <rPr>
@@ -493,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
       <text>
         <r>
           <rPr>
@@ -517,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{CE52022A-1191-43A1-BA47-49CAA9AA301B}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{CE52022A-1191-43A1-BA47-49CAA9AA301B}">
       <text>
         <r>
           <rPr>
@@ -541,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
       <text>
         <r>
           <rPr>
@@ -570,7 +594,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>Material</t>
   </si>
@@ -671,12 +695,6 @@
     <t>Fillamentum PLA Extrafill</t>
   </si>
   <si>
-    <t>igus iglidur I150</t>
-  </si>
-  <si>
-    <t>iglidur I150</t>
-  </si>
-  <si>
     <t>Enclosure used</t>
   </si>
   <si>
@@ -732,6 +750,18 @@
   </si>
   <si>
     <t>PrusaSlicer profiles</t>
+  </si>
+  <si>
+    <t>iglidur I180-PF</t>
+  </si>
+  <si>
+    <t>igus iglidur I180-PF</t>
+  </si>
+  <si>
+    <t>iglidur I150-PF</t>
+  </si>
+  <si>
+    <t>igus iglidur I150-PF</t>
   </si>
 </sst>
 </file>
@@ -1291,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,17 +1338,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1335,10 +1365,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="18"/>
     </row>
@@ -1373,481 +1403,499 @@
         <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="E20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
+      <c r="A22" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>6</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>39</v>
+      <c r="E25" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>17</v>
+      <c r="C26" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>36</v>
+      <c r="E26" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="E32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E32">
-    <sortCondition ref="A5:A32"/>
+  <sortState ref="A5:E33">
+    <sortCondition ref="A5:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6C218-262D-4B68-AB94-F40552F64286}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47087818-4D73-458D-8EF7-C82572D950FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{13B6180B-A46B-461F-B864-D5C480D439DE}">
       <text>
         <r>
           <rPr>
@@ -586,6 +586,55 @@
           </rPr>
           <t xml:space="preserve">
 Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{F29BC682-E3C6-4621-BC5C-D502A26D9926}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Brim suggested, packing tape on bed.
+Changes made to the normal Prusa profile are just speeds, original a bit too fast.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Darragh Broadbent:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Stringy, surface blobbing, not a great result</t>
         </r>
       </text>
     </comment>
@@ -594,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
   <si>
     <t>Material</t>
   </si>
@@ -762,6 +811,15 @@
   </si>
   <si>
     <t>igus iglidur I150-PF</t>
+  </si>
+  <si>
+    <t>Verbatim Primalloy</t>
+  </si>
+  <si>
+    <t>Verbatim PP</t>
+  </si>
+  <si>
+    <t>Verbatim PP mod</t>
   </si>
 </sst>
 </file>
@@ -819,7 +877,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -846,17 +904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -948,17 +995,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -985,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -996,17 +1032,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1370,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1352,550 +1385,586 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E33">
-    <sortCondition ref="A5:A33"/>
+  <sortState ref="A5:E35">
+    <sortCondition ref="A5:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22616"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Darragh\Documents\GitHub\Prusa-MK3-Material-Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47087818-4D73-458D-8EF7-C82572D950FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A93AEF-405C-4CEB-A168-FE834351812E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73692AA3-BA34-4172-88CE-EEE2FFA9ADF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,6 +36,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Darragh Broadbent</author>
+    <author>tc={EE67DAE4-DD31-4B6B-8182-975A8B47D6C6}</author>
+    <author>tc={16EF6A6F-EEAD-4618-BF22-D048D77E4DE5}</author>
   </authors>
   <commentList>
     <comment ref="D5" authorId="0" shapeId="0" xr:uid="{339F3111-5DCF-4BC9-A625-A0A72DCE7782}">
@@ -104,7 +114,18 @@
       </text>
     </comment>
     <comment ref="F7" authorId="0" shapeId="0" xr:uid="{221044AA-A390-4D84-BA7C-0914AFFBB821}">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t/>
+        </r>
+      </text>
     </comment>
     <comment ref="D8" authorId="0" shapeId="0" xr:uid="{99A1B285-34B1-496B-B6DF-B393D3A6FAD3}">
       <text>
@@ -251,31 +272,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{6CD30595-BA02-485E-9C00-1233A05C83DE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Darragh Broadbent:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{0774A3A8-1D56-4E7B-BD3A-E841559A2162}">
+    <comment ref="D18" authorId="1" shapeId="0" xr:uid="{EE67DAE4-DD31-4B6B-8182-975A8B47D6C6}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Darragh Broadbent:
+First layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.
+</t>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="2" shapeId="0" xr:uid="{16EF6A6F-EEAD-4618-BF22-D048D77E4DE5}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Darragh Broadbent:
+Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.
+</t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{0774A3A8-1D56-4E7B-BD3A-E841559A2162}">
       <text>
         <r>
           <rPr>
@@ -299,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{6FD53F9C-5A10-4655-B410-C14919F7F484}">
       <text>
         <r>
           <rPr>
@@ -323,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{7F30C7B6-B556-4FF9-B1F0-6CB901BE9E8C}">
       <text>
         <r>
           <rPr>
@@ -347,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{D5CE3906-B1F3-484F-937A-234E258807EE}">
       <text>
         <r>
           <rPr>
@@ -371,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{E0462C9B-BC3A-4A76-8CFA-B66364D1B3ED}">
       <text>
         <r>
           <rPr>
@@ -395,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{ECE11F64-1683-473C-9AC3-F116D9ED5E60}">
       <text>
         <r>
           <rPr>
@@ -419,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{0023CEED-8BBE-4786-A3A8-FF9F7051A736}">
       <text>
         <r>
           <rPr>
@@ -444,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{B0295431-8909-4919-8B34-7A07B2F464CD}">
       <text>
         <r>
           <rPr>
@@ -469,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{FA5AB986-6F3D-4095-AA62-83099A764AA8}">
       <text>
         <r>
           <rPr>
@@ -493,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{8CF096DE-B943-4F82-BABA-A6D82A9A43C5}">
       <text>
         <r>
           <rPr>
@@ -517,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{E9E07455-9D21-4254-B1CC-9B2704A45D99}">
       <text>
         <r>
           <rPr>
@@ -541,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{CE52022A-1191-43A1-BA47-49CAA9AA301B}">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{CE52022A-1191-43A1-BA47-49CAA9AA301B}">
       <text>
         <r>
           <rPr>
@@ -565,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{13B6180B-A46B-461F-B864-D5C480D439DE}">
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{13B6180B-A46B-461F-B864-D5C480D439DE}">
       <text>
         <r>
           <rPr>
@@ -589,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{F29BC682-E3C6-4621-BC5C-D502A26D9926}">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{F29BC682-E3C6-4621-BC5C-D502A26D9926}">
       <text>
         <r>
           <rPr>
@@ -614,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{A6EF5D67-670B-4DD4-81DA-A5F98F3CB0C2}">
       <text>
         <r>
           <rPr>
@@ -643,7 +660,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+  <si>
+    <t>READ THE NOTES IN COLUMN D</t>
+  </si>
+  <si>
+    <t>Alternate profiles denoted with parentheses</t>
+  </si>
+  <si>
+    <t>PrusaSlicer profiles</t>
+  </si>
   <si>
     <t>Material</t>
   </si>
@@ -657,58 +683,148 @@
     <t>printer</t>
   </si>
   <si>
+    <t>Enclosure used</t>
+  </si>
+  <si>
+    <t>Images (roll over to view)</t>
+  </si>
+  <si>
+    <t>Amazonbasics PLA</t>
+  </si>
+  <si>
+    <t>rigid.ink PLA</t>
+  </si>
+  <si>
+    <t>Original Prusa i3 MK3 purgebubble</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Easywood PLA</t>
+  </si>
+  <si>
+    <t>Polywood</t>
+  </si>
+  <si>
+    <t>EasyWood PLA</t>
+  </si>
+  <si>
+    <t>igus iglidur I150-PF</t>
+  </si>
+  <si>
+    <t>0.15 QUALITY MK3</t>
+  </si>
+  <si>
+    <t>iglidur I150-PF</t>
+  </si>
+  <si>
+    <t>MK3 Pretty PETG V2</t>
+  </si>
+  <si>
+    <t>igus iglidur I180-PF</t>
+  </si>
+  <si>
+    <t>iglidur I180-PF</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Fillamentum CPE HG100</t>
+  </si>
+  <si>
+    <t>Fillamentum CPE HG100 HM100 mod</t>
+  </si>
+  <si>
+    <t>Fillamentum PLA Extrafill</t>
+  </si>
+  <si>
+    <t>FilaPrint PETG</t>
+  </si>
+  <si>
+    <t>MK3 Pretty PETG V2 filaprint</t>
+  </si>
+  <si>
+    <t>FormFutura MetalFil</t>
+  </si>
+  <si>
+    <t>Original Prusa i3 MK3</t>
+  </si>
+  <si>
+    <t>Graphene Enhanced PLA</t>
+  </si>
+  <si>
+    <t>Polymaker PolyMax PC</t>
+  </si>
+  <si>
+    <t>Taulman Alloy 910</t>
+  </si>
+  <si>
+    <t>Polymaker PC-Max fans / (no fans)</t>
+  </si>
+  <si>
+    <t>Prima Select PETG</t>
+  </si>
+  <si>
+    <t>MK3 Pretty PETG V2 PrimaSelect</t>
+  </si>
+  <si>
+    <t>Proto-pasta Conductive</t>
+  </si>
+  <si>
+    <t>Proto-pasta HTPLA</t>
+  </si>
+  <si>
+    <t>Proto-pasta HTPLA Matte Fibre</t>
+  </si>
+  <si>
+    <t>Proto-pasta PC-ABS</t>
+  </si>
+  <si>
+    <t>Proto-pasta PC-ABS / (fans)</t>
+  </si>
+  <si>
+    <t>Reflect-o-Lay</t>
+  </si>
+  <si>
     <t>rigid.ink ABS</t>
   </si>
   <si>
-    <t>0.15 QUALITY MK3</t>
-  </si>
-  <si>
-    <t>MK3 Pretty PETG V2</t>
+    <t>rigid.ink ABS Ultra Durable</t>
   </si>
   <si>
     <t>rigid.ink ASA</t>
   </si>
   <si>
-    <t>Reflect-o-Lay</t>
-  </si>
-  <si>
-    <t>FormFutura MetalFil</t>
-  </si>
-  <si>
-    <t>Original Prusa i3 MK3</t>
-  </si>
-  <si>
-    <t>Polywood</t>
-  </si>
-  <si>
-    <t>rigid.ink PLA</t>
-  </si>
-  <si>
-    <t>Prima Select PETG</t>
+    <t>rigid.ink Flex PLA</t>
+  </si>
+  <si>
+    <t>rigid.ink HIPS</t>
+  </si>
+  <si>
+    <t>rigid.ink Nylon 12</t>
   </si>
   <si>
     <t>rigid.ink PETG</t>
   </si>
   <si>
-    <t>rigid.ink Flex PLA</t>
+    <t>MK3 Pretty PETG V2 rigid.ink</t>
   </si>
   <si>
     <t>rigid.ink PLA+</t>
   </si>
   <si>
-    <t>MK3 Pretty PETG V2 rigid.ink</t>
-  </si>
-  <si>
-    <t>MK3 Pretty PETG V2 PrimaSelect</t>
-  </si>
-  <si>
-    <t>EasyWood PLA</t>
-  </si>
-  <si>
-    <t>rigid.ink HIPS</t>
-  </si>
-  <si>
-    <t>Original Prusa i3 MK3 purgebubble</t>
+    <t>rigid.ink TPU</t>
+  </si>
+  <si>
+    <t>Taulman Bridge</t>
+  </si>
+  <si>
+    <t>Taulman Bridge mod</t>
+  </si>
+  <si>
+    <t>Taulman PCTPE</t>
   </si>
   <si>
     <t>Taulman T-Glase</t>
@@ -717,116 +833,20 @@
     <t>Taulman T-Glase mod</t>
   </si>
   <si>
-    <t>rigid.ink TPU</t>
-  </si>
-  <si>
-    <t>Easywood PLA</t>
-  </si>
-  <si>
-    <t>Graphene Enhanced PLA</t>
-  </si>
-  <si>
-    <t>Amazonbasics PLA</t>
-  </si>
-  <si>
-    <t>rigid.ink ABS Ultra Durable</t>
-  </si>
-  <si>
-    <t>FilaPrint PETG</t>
-  </si>
-  <si>
-    <t>MK3 Pretty PETG V2 filaprint</t>
-  </si>
-  <si>
-    <t>Proto-pasta HTPLA Matte Fibre</t>
-  </si>
-  <si>
-    <t>Fillamentum PLA Extrafill</t>
-  </si>
-  <si>
-    <t>Enclosure used</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>READ THE NOTES IN COLUMN D</t>
-  </si>
-  <si>
-    <t>Images (roll over to view)</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Taulman Bridge</t>
-  </si>
-  <si>
-    <t>Taulman Bridge mod</t>
-  </si>
-  <si>
-    <t>rigid.ink Nylon 12</t>
-  </si>
-  <si>
-    <t>Fillamentum CPE HG100</t>
-  </si>
-  <si>
-    <t>Fillamentum CPE HG100 HM100 mod</t>
-  </si>
-  <si>
-    <t>Proto-pasta PC-ABS</t>
-  </si>
-  <si>
-    <t>Polymaker PolyMax PC</t>
-  </si>
-  <si>
-    <t>Taulman Alloy 910</t>
-  </si>
-  <si>
-    <t>Taulman PCTPE</t>
-  </si>
-  <si>
-    <t>Proto-pasta Conductive</t>
-  </si>
-  <si>
-    <t>Proto-pasta PC-ABS / (fans)</t>
-  </si>
-  <si>
-    <t>Polymaker PC-Max fans / (no fans)</t>
-  </si>
-  <si>
-    <t>Alternate profiles denoted with parentheses</t>
-  </si>
-  <si>
-    <t>PrusaSlicer profiles</t>
-  </si>
-  <si>
-    <t>iglidur I180-PF</t>
-  </si>
-  <si>
-    <t>igus iglidur I180-PF</t>
-  </si>
-  <si>
-    <t>iglidur I150-PF</t>
-  </si>
-  <si>
-    <t>igus iglidur I150-PF</t>
+    <t>Verbatim PP</t>
+  </si>
+  <si>
+    <t>Verbatim PP mod</t>
   </si>
   <si>
     <t>Verbatim Primalloy</t>
-  </si>
-  <si>
-    <t>Verbatim PP</t>
-  </si>
-  <si>
-    <t>Verbatim PP mod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,6 +1075,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Darragh Broadbent" id="{CCA9DE57-22AF-42EA-922F-7839D6565415}" userId="88f3daabc5aa739c" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1352,15 +1378,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D18" dT="2020-02-20T11:57:25.85" personId="{CCA9DE57-22AF-42EA-922F-7839D6565415}" id="{EE67DAE4-DD31-4B6B-8182-975A8B47D6C6}">
+    <text xml:space="preserve">Darragh Broadbent:
+First layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.
+</text>
+  </threadedComment>
+  <threadedComment ref="D19" dT="2020-02-20T11:57:25.85" personId="{CCA9DE57-22AF-42EA-922F-7839D6565415}" id="{16EF6A6F-EEAD-4618-BF22-D048D77E4DE5}">
+    <text xml:space="preserve">Darragh Broadbent:
+Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8993357-4930-402C-A23E-E4B9A1301062}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -1369,602 +1410,620 @@
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="D16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="B31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="E35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="4"/>
+      <c r="F36" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A5:E35">
-    <sortCondition ref="A5:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E36">
+    <sortCondition ref="A5:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -7,6 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhXHF4op4WmQCeN4Sj9ZHyP4jlqAA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -18,179 +23,241 @@
   <commentList>
     <comment authorId="0" ref="D5">
       <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange. </t>
+        <t xml:space="preserve">======
+ID#AAAAI98E4AQ
+Darragh Broadbent    (2020-02-21 13:50:35)
+Prints reasonably well, a little messy on overhangs and bridging. Slight warping.</t>
       </text>
     </comment>
     <comment authorId="0" ref="D6">
       <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Quite stringy, moreso that the Polywood</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D7">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Stringy but cleans up fine.
-</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D8">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Plain PEI bed, also tried glue stick on PEI with mixed results, surface blobbing, easily removed with sharp knife or sandpaper.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D9">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-First print came out really well, I have just changed things like minimum speeds and minimum layer times to improve reliability. No brim used but slight warping was seen on Benchy base.
-</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D11">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent
-Brim suggested, slight warping on base. Magigoo PP used on bed, almost no stringing. Potentially overcooled on some layers.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D13">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-A very small amount of discolouration on one of the pillars</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D14">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Slight artifacts on overhangs</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D15">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-A little stringy</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D16">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Print quality improved by very conservative use of the cooling fan, especially small detail and short layer time, printed with a brim, minimal if any warping. Layer of glue stick on bed.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D19">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-First layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.
-</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D20">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.
-</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D21">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
+        <t xml:space="preserve">======
+ID#AAAAI98E4AI
+Darragh Broadbent    (2020-02-21 13:47:53)
+Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D22">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAo
+Darragh Broadbent    (2020-02-21 12:10:25)
 Brim suggested, prints well with the purgebubble method assuming glue stick used on bed. A significant decrease in layer to layer strength is in evidence with fans engaged, use with caution.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D22">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Quite oozy, used gluestick on PEI bed?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D23">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now, brim helpful.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D24">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Dry filament before usage. Brim helpful.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D25">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Brim helpful</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D26">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Unhappy with print quality, quite oozey, to be revisited.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D27">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Print quality now quite good, brim helpful
-</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D28">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Reasonably happy with print quality, brim helpful. Dry filament before use.
-</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D31">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Unhappy with print quality, to be revisited.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D32">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Tiny amounts of stringyness, used gluestick on PEI bed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D33">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Tiny bit of stringing, thin layer of glue stick required, bridging not wonderful. Dry filament before use.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D34">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping. Glue stick on bed.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D35">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
-Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D36">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
+    <comment authorId="0" ref="D37">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAk
+Darragh Broadbent    (2020-02-21 12:10:25)
 Brim suggested, packing tape on bed.
 Changes made to the normal Prusa profile are just speeds, original a bit too fast.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D37">
-      <text>
-        <t xml:space="preserve">Darragh Broadbent:
+    <comment authorId="0" ref="D28">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAg
+Darragh Broadbent    (2020-02-21 12:10:25)
+Print quality now quite good, brim helpful</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D23">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAc
+Darragh Broadbent    (2020-02-21 12:10:25)
+Quite oozy, used gluestick on PEI bed?</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D8">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAY
+Darragh Broadbent    (2020-02-21 12:10:25)
+Stringy but cleans up fine.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D25">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAU
+Darragh Broadbent    (2020-02-21 12:10:25)
+Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Dry filament before usage. Brim helpful.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D17">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAQ
+Darragh Broadbent    (2020-02-21 12:10:25)
+Print quality improved by very conservative use of the cooling fan, especially small detail and short layer time, printed with a brim, minimal if any warping. Layer of glue stick on bed.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D12">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAM
+    (2020-02-21 12:10:25)
+Darragh Broadbent
+Brim suggested, slight warping on base. Magigoo PP used on bed, almost no stringing. Potentially overcooled on some layers.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D32">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAI
+Darragh Broadbent    (2020-02-21 12:10:25)
+Unhappy with print quality, to be revisited.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D15">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TzAE
+Darragh Broadbent    (2020-02-21 12:10:25)
+Slight artifacts on overhangs</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D33">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvEU
+Darragh Broadbent    (2020-02-21 12:10:25)
+Tiny amounts of stringyness, used gluestick on PEI bed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D20">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvEQ
+Darragh Broadbent    (2020-02-21 12:10:25)
+First layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D9">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvEM
+Darragh Broadbent    (2020-02-21 12:10:25)
+Plain PEI bed, also tried glue stick on PEI with mixed results, surface blobbing, easily removed with sharp knife or sandpaper.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D29">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvEI
+Darragh Broadbent    (2020-02-21 12:10:25)
+Reasonably happy with print quality, brim helpful. Dry filament before use.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D26">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvEE
+Darragh Broadbent    (2020-02-21 12:10:25)
+Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Brim helpful</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D34">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvEA
+Darragh Broadbent    (2020-02-21 12:10:25)
+Tiny bit of stringing, thin layer of glue stick required, bridging not wonderful. Dry filament before use.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D36">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvD8
+Darragh Broadbent    (2020-02-21 12:10:25)
+Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D35">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvD0
+Darragh Broadbent    (2020-02-21 12:10:25)
+Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping. Glue stick on bed.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D38">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvDw
+Darragh Broadbent    (2020-02-21 12:10:25)
 Stringy, surface blobbing, not a great result</t>
       </text>
     </comment>
+    <comment authorId="0" ref="D24">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvDs
+Darragh Broadbent    (2020-02-21 12:10:25)
+Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now, brim helpful.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D21">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvDo
+Darragh Broadbent    (2020-02-21 12:10:25)
+Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D27">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvDk
+Darragh Broadbent    (2020-02-21 12:10:25)
+Unhappy with print quality, quite oozey, to be revisited.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D7">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvDg
+Darragh Broadbent    (2020-02-21 12:10:25)
+Quite stringy, moreso that the Polywood</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D16">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvDc
+Darragh Broadbent    (2020-02-21 12:10:25)
+A little stringy</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D14">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvDY
+Darragh Broadbent    (2020-02-21 12:10:25)
+A very small amount of discolouration on one of the pillars</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D10">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI7TvDU
+Darragh Broadbent    (2020-02-21 12:10:25)
+First print came out really well, I have just changed things like minimum speeds and minimum layer times to improve reliability. No brim used but slight warping was seen on Benchy base.</t>
+      </text>
+    </comment>
   </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg2suH7ZZahbD3ibmH8lpLTan6+jg=="/>
+    </ext>
+  </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
   <si>
     <t>READ THE NOTES IN COLUMN D</t>
   </si>
@@ -219,16 +286,25 @@
     <t>Images (roll over to view)</t>
   </si>
   <si>
+    <t>3DJake Skulpt</t>
+  </si>
+  <si>
+    <t>0.15 QUALITY MK3 slow first layer</t>
+  </si>
+  <si>
+    <t>Prusament PLA</t>
+  </si>
+  <si>
+    <t>Original Prusa i3 MK3 purgebubble</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Amazonbasics PLA</t>
   </si>
   <si>
     <t>rigid.ink PLA</t>
-  </si>
-  <si>
-    <t>Original Prusa i3 MK3 purgebubble</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Easywood PLA</t>
@@ -379,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -398,6 +474,15 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -511,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -521,11 +606,35 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -750,7 +859,6 @@
     <col customWidth="1" min="3" max="3" width="29.38"/>
     <col customWidth="1" min="4" max="5" width="28.13"/>
     <col customWidth="1" min="6" max="6" width="21.0"/>
-    <col customWidth="1" min="7" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -789,602 +897,641 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="E31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="E33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="E35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
+      <c r="E37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="23"/>
+    </row>
     <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2"/>
+    </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1"/>
@@ -2345,6 +2492,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhXHF4op4WmQCeN4Sj9ZHyP4jlqAA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miuXTMeL4JcjpSXc5HCBp6TwvidLA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -21,6 +21,38 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="D20">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJJ301Og
+Darragh Broadbent    (2020-02-27 15:13:31)
+Using Magigoo PC on bed. Found this needed slightly more cooling on small details than the Polymaker PC Max, use profile with or without fans depending on component being printed, even with fans, no warping visible.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D14">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI3AtfY
+Darragh Broadbent    (2020-02-24 13:42:01)
+Still in development</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D12">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI3Ate8
+Darragh Broadbent    (2020-02-24 13:40:48)
+Still in development</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D37">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJI3Atc8
+Darragh Broadbent    (2020-02-24 13:34:45)
+Still in testing</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D5">
       <text>
         <t xml:space="preserve">======
@@ -37,7 +69,7 @@
 Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D22">
+    <comment authorId="0" ref="D25">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAo
@@ -45,7 +77,7 @@
 Brim suggested, prints well with the purgebubble method assuming glue stick used on bed. A significant decrease in layer to layer strength is in evidence with fans engaged, use with caution.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D37">
+    <comment authorId="0" ref="D41">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAk
@@ -54,7 +86,7 @@
 Changes made to the normal Prusa profile are just speeds, original a bit too fast.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D28">
+    <comment authorId="0" ref="D31">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAg
@@ -62,7 +94,7 @@
 Print quality now quite good, brim helpful</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D23">
+    <comment authorId="0" ref="D26">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAc
@@ -78,7 +110,7 @@
 Stringy but cleans up fine.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D25">
+    <comment authorId="0" ref="D28">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAU
@@ -86,7 +118,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Dry filament before usage. Brim helpful.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D17">
+    <comment authorId="0" ref="D19">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAQ
@@ -94,7 +126,7 @@
 Print quality improved by very conservative use of the cooling fan, especially small detail and short layer time, printed with a brim, minimal if any warping. Layer of glue stick on bed.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D12">
+    <comment authorId="0" ref="D13">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAM
@@ -103,7 +135,7 @@
 Brim suggested, slight warping on base. Magigoo PP used on bed, almost no stringing. Potentially overcooled on some layers.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D32">
+    <comment authorId="0" ref="D35">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAI
@@ -111,7 +143,7 @@
 Unhappy with print quality, to be revisited.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D15">
+    <comment authorId="0" ref="D17">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAE
@@ -119,7 +151,7 @@
 Slight artifacts on overhangs</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D33">
+    <comment authorId="0" ref="D36">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEU
@@ -127,7 +159,7 @@
 Tiny amounts of stringyness, used gluestick on PEI bed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D20">
+    <comment authorId="0" ref="D23">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEQ
@@ -143,7 +175,7 @@
 Plain PEI bed, also tried glue stick on PEI with mixed results, surface blobbing, easily removed with sharp knife or sandpaper.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D29">
+    <comment authorId="0" ref="D32">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEI
@@ -151,7 +183,7 @@
 Reasonably happy with print quality, brim helpful. Dry filament before use.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D26">
+    <comment authorId="0" ref="D29">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEE
@@ -159,7 +191,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Brim helpful</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D34">
+    <comment authorId="0" ref="D38">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEA
@@ -167,7 +199,7 @@
 Tiny bit of stringing, thin layer of glue stick required, bridging not wonderful. Dry filament before use.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D36">
+    <comment authorId="0" ref="D40">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvD8
@@ -175,7 +207,7 @@
 Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D35">
+    <comment authorId="0" ref="D39">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvD0
@@ -183,7 +215,7 @@
 Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping. Glue stick on bed.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D38">
+    <comment authorId="0" ref="D42">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDw
@@ -191,7 +223,7 @@
 Stringy, surface blobbing, not a great result</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D24">
+    <comment authorId="0" ref="D27">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDs
@@ -199,7 +231,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now, brim helpful.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D21">
+    <comment authorId="0" ref="D24">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDo
@@ -207,7 +239,7 @@
 Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D27">
+    <comment authorId="0" ref="D30">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDk
@@ -223,7 +255,7 @@
 Quite stringy, moreso that the Polywood</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D16">
+    <comment authorId="0" ref="D18">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDc
@@ -231,7 +263,7 @@
 A little stringy</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D14">
+    <comment authorId="0" ref="D16">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDY
@@ -250,14 +282,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg2suH7ZZahbD3ibmH8lpLTan6+jg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj72t9JPQ6No6S9Bn+UE/MvIZoWXQ=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
   <si>
     <t>READ THE NOTES IN COLUMN D</t>
   </si>
@@ -346,12 +378,21 @@
     <t>Fillamentum PLA Extrafill</t>
   </si>
   <si>
+    <t>Fillamentum PP 2320</t>
+  </si>
+  <si>
+    <t>Verbatim PP</t>
+  </si>
+  <si>
     <t>Fillamentum TPE 96A</t>
   </si>
   <si>
     <t>rigid.ink TPU</t>
   </si>
   <si>
+    <t>Fillamentum Vinyl 303</t>
+  </si>
+  <si>
     <t>FilaPrint PETG</t>
   </si>
   <si>
@@ -376,6 +417,12 @@
     <t>Polymaker PC-Max fans / (no fans)</t>
   </si>
   <si>
+    <t>Polymaker PolyMax PC-FR</t>
+  </si>
+  <si>
+    <t>Polymaker PC-FR fans / (no fans)</t>
+  </si>
+  <si>
     <t>Prima Select PETG</t>
   </si>
   <si>
@@ -440,9 +487,6 @@
   </si>
   <si>
     <t>Taulman T-Glase mod</t>
-  </si>
-  <si>
-    <t>Verbatim PP</t>
   </si>
   <si>
     <t>Verbatim PP mod</t>
@@ -455,7 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -479,10 +523,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -606,36 +646,30 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -927,33 +961,33 @@
       <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -968,10 +1002,10 @@
       <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -986,10 +1020,10 @@
       <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -1004,10 +1038,10 @@
       <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1022,10 +1056,10 @@
       <c r="E10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1040,305 +1074,305 @@
       <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="B15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
-        <v>17</v>
+      <c r="A16" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
-        <v>36</v>
+      <c r="A17" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="F17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
-        <v>39</v>
+      <c r="A18" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="F19" s="16"/>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="F20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>43</v>
+      <c r="A21" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>44</v>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>48</v>
+      <c r="A25" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>49</v>
+      <c r="A26" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>51</v>
+      <c r="A28" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>22</v>
@@ -1346,17 +1380,17 @@
       <c r="E28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>52</v>
+      <c r="A29" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>22</v>
@@ -1364,178 +1398,246 @@
       <c r="E29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>53</v>
+      <c r="A30" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="17" t="s">
-        <v>15</v>
+      <c r="A31" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>55</v>
+      <c r="A32" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>30</v>
+      <c r="A33" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>56</v>
+      <c r="A34" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>58</v>
+      <c r="A35" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="D39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="23"/>
+    </row>
     <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="2"/>
+    </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
@@ -2493,6 +2595,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miuXTMeL4JcjpSXc5HCBp6TwvidLA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjfbGoMpsLw8sAGONLYnxjZWTDwFQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -21,7 +21,15 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D20">
+    <comment authorId="0" ref="D11">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJJmGsdM
+Darragh Broadbent    (2020-02-28 20:00:06)
+In development</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D21">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJJ301Og
@@ -29,7 +37,7 @@
 Using Magigoo PC on bed. Found this needed slightly more cooling on small details than the Polymaker PC Max, use profile with or without fans depending on component being printed, even with fans, no warping visible.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D14">
+    <comment authorId="0" ref="D15">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI3AtfY
@@ -37,7 +45,7 @@
 Still in development</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D12">
+    <comment authorId="0" ref="D13">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI3Ate8
@@ -45,7 +53,7 @@
 Still in development</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D37">
+    <comment authorId="0" ref="D38">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI3Atc8
@@ -69,7 +77,7 @@
 Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D25">
+    <comment authorId="0" ref="D26">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAo
@@ -77,7 +85,7 @@
 Brim suggested, prints well with the purgebubble method assuming glue stick used on bed. A significant decrease in layer to layer strength is in evidence with fans engaged, use with caution.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D41">
+    <comment authorId="0" ref="D42">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAk
@@ -86,7 +94,7 @@
 Changes made to the normal Prusa profile are just speeds, original a bit too fast.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D31">
+    <comment authorId="0" ref="D32">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAg
@@ -94,7 +102,7 @@
 Print quality now quite good, brim helpful</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D26">
+    <comment authorId="0" ref="D27">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAc
@@ -110,7 +118,7 @@
 Stringy but cleans up fine.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D28">
+    <comment authorId="0" ref="D29">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAU
@@ -118,7 +126,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Dry filament before usage. Brim helpful.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D19">
+    <comment authorId="0" ref="D20">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAQ
@@ -126,7 +134,7 @@
 Print quality improved by very conservative use of the cooling fan, especially small detail and short layer time, printed with a brim, minimal if any warping. Layer of glue stick on bed.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D13">
+    <comment authorId="0" ref="D14">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAM
@@ -135,7 +143,7 @@
 Brim suggested, slight warping on base. Magigoo PP used on bed, almost no stringing. Potentially overcooled on some layers.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D35">
+    <comment authorId="0" ref="D36">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAI
@@ -143,7 +151,7 @@
 Unhappy with print quality, to be revisited.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D17">
+    <comment authorId="0" ref="D18">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAE
@@ -151,7 +159,7 @@
 Slight artifacts on overhangs</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D36">
+    <comment authorId="0" ref="D37">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEU
@@ -159,7 +167,7 @@
 Tiny amounts of stringyness, used gluestick on PEI bed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D23">
+    <comment authorId="0" ref="D24">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEQ
@@ -175,7 +183,7 @@
 Plain PEI bed, also tried glue stick on PEI with mixed results, surface blobbing, easily removed with sharp knife or sandpaper.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D32">
+    <comment authorId="0" ref="D33">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEI
@@ -183,7 +191,7 @@
 Reasonably happy with print quality, brim helpful. Dry filament before use.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D29">
+    <comment authorId="0" ref="D30">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEE
@@ -191,7 +199,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Brim helpful</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D38">
+    <comment authorId="0" ref="D39">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEA
@@ -199,7 +207,7 @@
 Tiny bit of stringing, thin layer of glue stick required, bridging not wonderful. Dry filament before use.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D40">
+    <comment authorId="0" ref="D41">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvD8
@@ -207,7 +215,7 @@
 Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D39">
+    <comment authorId="0" ref="D40">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvD0
@@ -215,7 +223,7 @@
 Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping. Glue stick on bed.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D42">
+    <comment authorId="0" ref="D43">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDw
@@ -223,7 +231,7 @@
 Stringy, surface blobbing, not a great result</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D27">
+    <comment authorId="0" ref="D28">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDs
@@ -231,7 +239,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now, brim helpful.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D24">
+    <comment authorId="0" ref="D25">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDo
@@ -239,7 +247,7 @@
 Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D30">
+    <comment authorId="0" ref="D31">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDk
@@ -255,7 +263,7 @@
 Quite stringy, moreso that the Polywood</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D18">
+    <comment authorId="0" ref="D19">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDc
@@ -263,7 +271,7 @@
 A little stringy</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D16">
+    <comment authorId="0" ref="D17">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDY
@@ -282,14 +290,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj72t9JPQ6No6S9Bn+UE/MvIZoWXQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjN5rkeBQJESybDynqpRf26NOr4fw=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
   <si>
     <t>READ THE NOTES IN COLUMN D</t>
   </si>
@@ -373,6 +381,9 @@
   </si>
   <si>
     <t>Fillamentum CPE HG100 HM100 mod</t>
+  </si>
+  <si>
+    <t>Fillamentum PC-ABS</t>
   </si>
   <si>
     <t>Fillamentum PLA Extrafill</t>
@@ -665,10 +676,10 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1059,107 +1070,107 @@
       <c r="F10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
+      <c r="B11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="B13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>33</v>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="F15" s="16"/>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>13</v>
@@ -1168,16 +1179,16 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>13</v>
@@ -1186,16 +1197,16 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>13</v>
@@ -1204,31 +1215,31 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>12</v>
@@ -1239,35 +1250,35 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="D21" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D22" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>13</v>
@@ -1279,10 +1290,10 @@
         <v>47</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>12</v>
@@ -1297,10 +1308,10 @@
         <v>48</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>12</v>
@@ -1310,39 +1321,39 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F26" s="16"/>
     </row>
@@ -1350,17 +1361,17 @@
       <c r="A27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>10</v>
+      <c r="B27" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F27" s="16"/>
     </row>
@@ -1368,8 +1379,8 @@
       <c r="A28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>53</v>
+      <c r="B28" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>53</v>
@@ -1387,7 +1398,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>54</v>
@@ -1405,16 +1416,16 @@
         <v>55</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -1429,10 +1440,10 @@
         <v>56</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -1441,7 +1452,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>57</v>
@@ -1462,28 +1473,28 @@
         <v>22</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F33" s="16"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>13</v>
@@ -1492,16 +1503,16 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>13</v>
@@ -1510,16 +1521,16 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>13</v>
@@ -1527,35 +1538,35 @@
       <c r="F36" s="16"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>40</v>
+      <c r="A37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F37" s="16"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>22</v>
+      <c r="A38" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>25</v>
@@ -1564,16 +1575,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>25</v>
@@ -1585,60 +1596,77 @@
         <v>64</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="D40" s="13" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F40" s="16"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2"/>
+    </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
@@ -2599,6 +2627,7 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -5,11 +5,13 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$4:$F$45</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjfbGoMpsLw8sAGONLYnxjZWTDwFQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh6eMmJo3styjdzbDlLBCs/q6i8xA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -21,15 +23,31 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D11">
+    <comment authorId="0" ref="D16">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJJqY4rI
+Darragh Broadbent    (2020-02-29 17:44:52)
+In development.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D20">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAJJqY4rE
+Darragh Broadbent    (2020-02-29 17:42:41)
+In development</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D10">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJJmGsdM
 Darragh Broadbent    (2020-02-28 20:00:06)
-In development</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D21">
+Material is quite sensitive to cooling, prints well on Magigoo PC. Brim suggested, very slight warping.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D22">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJJ301Og
@@ -37,7 +55,7 @@
 Using Magigoo PC on bed. Found this needed slightly more cooling on small details than the Polymaker PC Max, use profile with or without fans depending on component being printed, even with fans, no warping visible.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D15">
+    <comment authorId="0" ref="D14">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI3AtfY
@@ -45,7 +63,7 @@
 Still in development</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D13">
+    <comment authorId="0" ref="D12">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI3Ate8
@@ -53,7 +71,7 @@
 Still in development</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D38">
+    <comment authorId="0" ref="D40">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI3Atc8
@@ -77,7 +95,7 @@
 Prints good, colour not nearly as vivid when compared to rigid.ink, I have only used orange.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D26">
+    <comment authorId="0" ref="D28">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAo
@@ -85,7 +103,7 @@
 Brim suggested, prints well with the purgebubble method assuming glue stick used on bed. A significant decrease in layer to layer strength is in evidence with fans engaged, use with caution.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D42">
+    <comment authorId="0" ref="D44">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAk
@@ -94,7 +112,7 @@
 Changes made to the normal Prusa profile are just speeds, original a bit too fast.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D32">
+    <comment authorId="0" ref="D34">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAg
@@ -102,7 +120,7 @@
 Print quality now quite good, brim helpful</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D27">
+    <comment authorId="0" ref="D29">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAc
@@ -110,7 +128,7 @@
 Quite oozy, used gluestick on PEI bed?</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D8">
+    <comment authorId="0" ref="D18">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAY
@@ -118,7 +136,7 @@
 Stringy but cleans up fine.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D29">
+    <comment authorId="0" ref="D31">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAU
@@ -126,7 +144,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Dry filament before usage. Brim helpful.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D20">
+    <comment authorId="0" ref="D21">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAQ
@@ -134,7 +152,7 @@
 Print quality improved by very conservative use of the cooling fan, especially small detail and short layer time, printed with a brim, minimal if any warping. Layer of glue stick on bed.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D14">
+    <comment authorId="0" ref="D13">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAM
@@ -143,7 +161,7 @@
 Brim suggested, slight warping on base. Magigoo PP used on bed, almost no stringing. Potentially overcooled on some layers.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D36">
+    <comment authorId="0" ref="D38">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAI
@@ -151,7 +169,7 @@
 Unhappy with print quality, to be revisited.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D18">
+    <comment authorId="0" ref="D17">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAE
@@ -159,7 +177,7 @@
 Slight artifacts on overhangs</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D37">
+    <comment authorId="0" ref="D39">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEU
@@ -167,7 +185,7 @@
 Tiny amounts of stringyness, used gluestick on PEI bed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D24">
+    <comment authorId="0" ref="D26">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEQ
@@ -175,7 +193,7 @@
 First layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D9">
+    <comment authorId="0" ref="D19">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEM
@@ -183,7 +201,7 @@
 Plain PEI bed, also tried glue stick on PEI with mixed results, surface blobbing, easily removed with sharp knife or sandpaper.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D33">
+    <comment authorId="0" ref="D35">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEI
@@ -191,7 +209,7 @@
 Reasonably happy with print quality, brim helpful. Dry filament before use.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D30">
+    <comment authorId="0" ref="D32">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEE
@@ -199,7 +217,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Brim helpful</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D39">
+    <comment authorId="0" ref="D41">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEA
@@ -207,7 +225,7 @@
 Tiny bit of stringing, thin layer of glue stick required, bridging not wonderful. Dry filament before use.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D41">
+    <comment authorId="0" ref="D43">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvD8
@@ -215,7 +233,7 @@
 Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D40">
+    <comment authorId="0" ref="D42">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvD0
@@ -223,7 +241,7 @@
 Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping. Glue stick on bed.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D43">
+    <comment authorId="0" ref="D45">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDw
@@ -231,7 +249,7 @@
 Stringy, surface blobbing, not a great result</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D28">
+    <comment authorId="0" ref="D30">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDs
@@ -239,7 +257,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now, brim helpful.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D25">
+    <comment authorId="0" ref="D27">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDo
@@ -247,7 +265,7 @@
 Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D31">
+    <comment authorId="0" ref="D33">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDk
@@ -263,7 +281,7 @@
 Quite stringy, moreso that the Polywood</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D19">
+    <comment authorId="0" ref="D23">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDc
@@ -271,7 +289,7 @@
 A little stringy</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D17">
+    <comment authorId="0" ref="D15">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDY
@@ -279,7 +297,7 @@
 A very small amount of discolouration on one of the pillars</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D10">
+    <comment authorId="0" ref="D9">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDU
@@ -290,14 +308,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjN5rkeBQJESybDynqpRf26NOr4fw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mghbGt/QElmSJkKQiR7427iXcSidA=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="71">
   <si>
     <t>READ THE NOTES IN COLUMN D</t>
   </si>
@@ -356,6 +374,57 @@
     <t>EasyWood PLA</t>
   </si>
   <si>
+    <t>FilaPrint PETG</t>
+  </si>
+  <si>
+    <t>MK3 Pretty PETG V2</t>
+  </si>
+  <si>
+    <t>MK3 Pretty PETG V2 filaprint</t>
+  </si>
+  <si>
+    <t>Fillamentum CPE HG100</t>
+  </si>
+  <si>
+    <t>Fillamentum CPE HG100 HM100 mod</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Fillamentum PC-ABS</t>
+  </si>
+  <si>
+    <t>Fillamentum PLA Extrafill</t>
+  </si>
+  <si>
+    <t>Fillamentum PP 2320</t>
+  </si>
+  <si>
+    <t>Verbatim PP</t>
+  </si>
+  <si>
+    <t>Fillamentum TPE 96A</t>
+  </si>
+  <si>
+    <t>rigid.ink TPU</t>
+  </si>
+  <si>
+    <t>Fillamentum Vinyl 303</t>
+  </si>
+  <si>
+    <t>FormFutura MetalFil</t>
+  </si>
+  <si>
+    <t>Original Prusa i3 MK3</t>
+  </si>
+  <si>
+    <t>FrontierFila POM</t>
+  </si>
+  <si>
+    <t>Graphene Enhanced PLA</t>
+  </si>
+  <si>
     <t>igus iglidur I150-PF</t>
   </si>
   <si>
@@ -365,58 +434,13 @@
     <t>iglidur I150-PF</t>
   </si>
   <si>
-    <t>MK3 Pretty PETG V2</t>
-  </si>
-  <si>
     <t>igus iglidur I180-PF</t>
   </si>
   <si>
     <t>iglidur I180-PF</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Fillamentum CPE HG100</t>
-  </si>
-  <si>
-    <t>Fillamentum CPE HG100 HM100 mod</t>
-  </si>
-  <si>
-    <t>Fillamentum PC-ABS</t>
-  </si>
-  <si>
-    <t>Fillamentum PLA Extrafill</t>
-  </si>
-  <si>
-    <t>Fillamentum PP 2320</t>
-  </si>
-  <si>
-    <t>Verbatim PP</t>
-  </si>
-  <si>
-    <t>Fillamentum TPE 96A</t>
-  </si>
-  <si>
-    <t>rigid.ink TPU</t>
-  </si>
-  <si>
-    <t>Fillamentum Vinyl 303</t>
-  </si>
-  <si>
-    <t>FilaPrint PETG</t>
-  </si>
-  <si>
-    <t>MK3 Pretty PETG V2 filaprint</t>
-  </si>
-  <si>
-    <t>FormFutura MetalFil</t>
-  </si>
-  <si>
-    <t>Original Prusa i3 MK3</t>
-  </si>
-  <si>
-    <t>Graphene Enhanced PLA</t>
+    <t>Polymaker PC-ABS</t>
   </si>
   <si>
     <t>Polymaker PolyMax PC</t>
@@ -510,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -534,6 +558,10 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -661,14 +689,14 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1026,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>13</v>
@@ -1035,160 +1063,158 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>25</v>
+      <c r="E11" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>32</v>
+      <c r="B14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>13</v>
@@ -1197,16 +1223,16 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>13</v>
@@ -1215,46 +1241,46 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="B20" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>44</v>
@@ -1263,40 +1289,40 @@
         <v>12</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>13</v>
@@ -1305,16 +1331,16 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>13</v>
@@ -1326,10 +1352,10 @@
         <v>49</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>12</v>
@@ -1339,7 +1365,7 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="15" t="s">
         <v>50</v>
       </c>
@@ -1347,28 +1373,28 @@
         <v>50</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>13</v>
@@ -1377,19 +1403,19 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="16"/>
     </row>
@@ -1404,10 +1430,10 @@
         <v>54</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -1415,17 +1441,17 @@
       <c r="A30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>20</v>
+      <c r="B30" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -1440,10 +1466,10 @@
         <v>56</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -1452,16 +1478,16 @@
         <v>57</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="16"/>
     </row>
@@ -1470,16 +1496,16 @@
         <v>58</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -1488,34 +1514,34 @@
         <v>59</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F34" s="16"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -1524,13 +1550,13 @@
         <v>61</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>13</v>
@@ -1539,13 +1565,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>12</v>
@@ -1556,119 +1582,153 @@
       <c r="F37" s="16"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>41</v>
+      <c r="A38" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F38" s="16"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F39" s="16"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>12</v>
+      <c r="A40" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" s="16"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="D41" s="13" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F41" s="16"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" s="16"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="22" t="s">
+      <c r="D43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="16"/>
+    </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2"/>
+      <c r="A45" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2"/>
+    </row>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -2628,7 +2688,14 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$A$4:$F$45">
+    <sortState ref="A4:F45">
+      <sortCondition ref="A4:A45"/>
+    </sortState>
+  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh6eMmJo3styjdzbDlLBCs/q6i8xA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgZABFZF9nhaDdJ+BuAPXd+fWmMxA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -28,7 +28,7 @@
         <t xml:space="preserve">======
 ID#AAAAJJqY4rI
 Darragh Broadbent    (2020-02-29 17:44:52)
-In development.</t>
+In development. Magigoo advised to use their Magigoo PA on the bed.</t>
       </text>
     </comment>
     <comment authorId="0" ref="D20">
@@ -68,7 +68,7 @@
         <t xml:space="preserve">======
 ID#AAAAJI3Ate8
 Darragh Broadbent    (2020-02-24 13:40:48)
-Still in development</t>
+Still in development, used Magigoo PP on bed, not experimented with packing tape yet. Very large brim suggested (&gt;10mm)</t>
       </text>
     </comment>
     <comment authorId="0" ref="D40">
@@ -308,14 +308,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mghbGt/QElmSJkKQiR7427iXcSidA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjDsvScs+fpRPPNHOX8aMS5/ipDQg=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
   <si>
     <t>READ THE NOTES IN COLUMN D</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -558,10 +558,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -689,14 +685,14 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1200,7 +1196,9 @@
       <c r="D16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="16"/>
     </row>
     <row r="17">

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -1608,7 +1608,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>13</v>

--- a/materialprofiles.xlsx
+++ b/materialprofiles.xlsx
@@ -6,12 +6,12 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$4:$F$45</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$4:$F$46</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgZABFZF9nhaDdJ+BuAPXd+fWmMxA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgx5+9kVzAQ4+HtCPYKsgJbe+/jLg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -23,6 +23,14 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="D29">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAGw3CUzE
+Darragh Broadbent    (2020-08-01 13:49:38)
+Brim suggested, prints with minimal warping using the Recreus primer on smooth PEI sheet, WARNING the primer is extremely challenging to remove from the PEI sheets, the stuff is sort of like a superglue when it dries. Currently attempting to use Magigoo PP to see if the Primer can be avoided. Tempted to procure a plain spring steel sheet with no PEI sticker if you were going to be printing a lot of this.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D16">
       <text>
         <t xml:space="preserve">======
@@ -71,7 +79,7 @@
 Still in development, used Magigoo PP on bed, not experimented with packing tape yet. Very large brim suggested (&gt;10mm)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D40">
+    <comment authorId="0" ref="D41">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI3Atc8
@@ -103,7 +111,7 @@
 Brim suggested, prints well with the purgebubble method assuming glue stick used on bed. A significant decrease in layer to layer strength is in evidence with fans engaged, use with caution.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D44">
+    <comment authorId="0" ref="D45">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAk
@@ -112,7 +120,7 @@
 Changes made to the normal Prusa profile are just speeds, original a bit too fast.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D34">
+    <comment authorId="0" ref="D35">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAg
@@ -120,7 +128,7 @@
 Print quality now quite good, brim helpful</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D29">
+    <comment authorId="0" ref="D30">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAc
@@ -136,7 +144,7 @@
 Stringy but cleans up fine.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D31">
+    <comment authorId="0" ref="D32">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAU
@@ -161,7 +169,7 @@
 Brim suggested, slight warping on base. Magigoo PP used on bed, almost no stringing. Potentially overcooled on some layers.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D38">
+    <comment authorId="0" ref="D39">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TzAI
@@ -177,7 +185,7 @@
 Slight artifacts on overhangs</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D39">
+    <comment authorId="0" ref="D40">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEU
@@ -201,7 +209,7 @@
 Plain PEI bed, also tried glue stick on PEI with mixed results, surface blobbing, easily removed with sharp knife or sandpaper.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D35">
+    <comment authorId="0" ref="D36">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEI
@@ -209,7 +217,7 @@
 Reasonably happy with print quality, brim helpful. Dry filament before use.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D32">
+    <comment authorId="0" ref="D33">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEE
@@ -217,7 +225,7 @@
 Turn overhangs towards the front of the printer. (into wind as far as the part cooling fan is concerned) Pretty happy with print quality now. Brim helpful</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D41">
+    <comment authorId="0" ref="D42">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvEA
@@ -225,7 +233,7 @@
 Tiny bit of stringing, thin layer of glue stick required, bridging not wonderful. Dry filament before use.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D43">
+    <comment authorId="0" ref="D44">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvD8
@@ -233,7 +241,7 @@
 Standard Slic3r profile for T-Glase is nonsense, bed temperature above the glass transition for the material? ¯\_(ツ)_/¯ Generated new profile using guidance from Taulman, and a bit of trial and error</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D42">
+    <comment authorId="0" ref="D43">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvD0
@@ -241,7 +249,7 @@
 Not fantastic quality, stringing and warping artifacts, printed with a brim, heavy warping. Glue stick on bed.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D45">
+    <comment authorId="0" ref="D46">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDw
@@ -249,7 +257,7 @@
 Stringy, surface blobbing, not a great result</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D30">
+    <comment authorId="0" ref="D31">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDs
@@ -265,7 +273,7 @@
 Consistent, light stringing, first layer 240°C to break nozzle blockage, further layers 210, could potentially go lower.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D33">
+    <comment authorId="0" ref="D34">
       <text>
         <t xml:space="preserve">======
 ID#AAAAJI7TvDk
@@ -308,14 +316,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjDsvScs+fpRPPNHOX8aMS5/ipDQg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh6j4QDOGsqTTCscalBrh58xh736w=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="72">
   <si>
     <t>READ THE NOTES IN COLUMN D</t>
   </si>
@@ -477,6 +485,9 @@
   </si>
   <si>
     <t>Proto-pasta PC-ABS / (fans)</t>
+  </si>
+  <si>
+    <t>Recreus PP</t>
   </si>
   <si>
     <t>Reflect-o-Lay</t>
@@ -1418,19 +1429,19 @@
       <c r="F28" s="16"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="D29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="16"/>
@@ -1439,17 +1450,17 @@
       <c r="A30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>10</v>
+      <c r="B30" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F30" s="16"/>
     </row>
@@ -1457,8 +1468,8 @@
       <c r="A31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>56</v>
+      <c r="B31" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>56</v>
@@ -1476,7 +1487,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>57</v>
@@ -1494,16 +1505,16 @@
         <v>58</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -1518,10 +1529,10 @@
         <v>59</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F34" s="16"/>
     </row>
@@ -1530,7 +1541,7 @@
         <v>60</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>60</v>
@@ -1551,28 +1562,28 @@
         <v>20</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F36" s="16"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>13</v>
@@ -1581,16 +1592,16 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>13</v>
@@ -1599,16 +1610,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>13</v>
@@ -1616,35 +1627,35 @@
       <c r="F39" s="16"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>24</v>
@@ -1653,16 +1664,16 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>24</v>
@@ -1674,60 +1685,77 @@
         <v>67</v>
       </c>
       <c r="B43" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="D43" s="13" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="22" t="s">
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2"/>
+    </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2688,10 +2716,11 @@
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
     <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$4:$F$45">
-    <sortState ref="A4:F45">
-      <sortCondition ref="A4:A45"/>
+  <autoFilter ref="$A$4:$F$46">
+    <sortState ref="A4:F46">
+      <sortCondition ref="A4:A46"/>
     </sortState>
   </autoFilter>
   <printOptions/>
